--- a/第二章/2_Worksheet2_姓名_内容营销月度规划.xlsx
+++ b/第二章/2_Worksheet2_姓名_内容营销月度规划.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charis/OneDrive/斜杠私塾/4. 课程产品/_全栈新媒体运营专业/_全栈新媒体人成长计划/配套项目文件/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yezi/Documents/半撇私塾/对外文件下载/MKG101-Exercise-Files/第二章/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="540" windowWidth="28560" windowHeight="17380"/>
+    <workbookView xWindow="240" yWindow="520" windowWidth="28560" windowHeight="16200"/>
   </bookViews>
   <sheets>
     <sheet name="内容创作库" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <author>Microsoft Office 用户</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="F12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>序号</t>
   </si>
@@ -283,14 +283,129 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>XXX的4月内容规划</t>
+    <t>1. 请回顾上一节课你提出的产品Idea</t>
     <rPh sb="3" eb="4">
+      <t>qing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hui gu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shang yi jei ke</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ni</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ti chu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
       <t>de</t>
     </rPh>
-    <rPh sb="5" eb="6">
+    <rPh sb="14" eb="15">
+      <t>chan p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标用户：</t>
+    <rPh sb="0" eb="1">
+      <t>mu biao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户痛点问题：</t>
+    <rPh sb="0" eb="1">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tong dian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的产品是：</t>
+    <rPh sb="0" eb="1">
+      <t>ni</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>de</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chan pin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方式：</t>
+    <rPh sb="0" eb="1">
+      <t>jie jue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fnag shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品阶段：</t>
+    <rPh sb="0" eb="1">
+      <t>chan p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 请列出你的月度内容规划</t>
+    <rPh sb="3" eb="4">
+      <t>qing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lie chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ni</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yue fen</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>du guo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>nei ro</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>gui hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXX（产品名称）X月内容规划</t>
+    <rPh sb="4" eb="5">
+      <t>chan p</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ming cheng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
       <t>yue</t>
     </rPh>
-    <rPh sb="6" eb="7">
+    <rPh sb="11" eb="12">
       <t>nei ro</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,22 +428,26 @@
     <font>
       <sz val="10"/>
       <name val="Microsoft YaHei"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="0"/>
       <name val="Microsoft YaHei"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -574,7 +693,7 @@
       <alignment vertical="center" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center" indent="1"/>
     </xf>
@@ -646,6 +765,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -963,13 +1088,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I203"/>
+  <dimension ref="B2:I212"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="12" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -986,324 +1111,267 @@
     <col min="10" max="16384" width="8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="2:9" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="21" t="s">
+    </row>
+    <row r="3" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="30"/>
+    </row>
+    <row r="12" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C12" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E12" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I12" s="23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="11" t="s">
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C13" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="2" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H13" s="9">
         <v>42826</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I13" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="13" t="s">
+    <row r="14" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="7" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="2" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H14" s="9">
         <v>42826</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I14" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="13" t="s">
+    <row r="15" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="2" t="s">
+      <c r="F15" s="7"/>
+      <c r="G15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H15" s="9">
         <v>42837</v>
       </c>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="11">
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="11">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="11">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="11">
         <v>2</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="11">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="11">
         <v>3</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="11">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="11">
         <v>4</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="11">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="11">
         <v>5</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="11">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="11">
         <v>6</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="11">
         <v>7</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="11">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="11">
         <v>8</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="11">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="11">
         <v>9</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="15">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="15">
         <v>10</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
-    </row>
-    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="4"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
     </row>
     <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="4"/>
@@ -1316,7 +1384,9 @@
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="4"/>
+      <c r="B27" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -3085,10 +3155,100 @@
       <c r="H203" s="5"/>
       <c r="I203" s="4"/>
     </row>
+    <row r="204" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B204" s="4"/>
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="4"/>
+      <c r="G204" s="4"/>
+      <c r="H204" s="5"/>
+      <c r="I204" s="4"/>
+    </row>
+    <row r="205" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="4"/>
+      <c r="G205" s="4"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="4"/>
+    </row>
+    <row r="206" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B206" s="4"/>
+      <c r="C206" s="4"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="4"/>
+      <c r="G206" s="4"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="4"/>
+    </row>
+    <row r="207" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B207" s="4"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="4"/>
+      <c r="F207" s="4"/>
+      <c r="G207" s="4"/>
+      <c r="H207" s="5"/>
+      <c r="I207" s="4"/>
+    </row>
+    <row r="208" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B208" s="4"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="4"/>
+    </row>
+    <row r="209" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B209" s="4"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4"/>
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
+      <c r="H209" s="5"/>
+      <c r="I209" s="4"/>
+    </row>
+    <row r="210" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B210" s="4"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4"/>
+      <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
+      <c r="H210" s="5"/>
+      <c r="I210" s="4"/>
+    </row>
+    <row r="211" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B211" s="4"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4"/>
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+      <c r="H211" s="5"/>
+      <c r="I211" s="4"/>
+    </row>
+    <row r="212" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B212" s="4"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="4"/>
+      <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B11:I11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
